--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1205109.826916517</v>
+        <v>1150157.937632421</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.3872013176</v>
+        <v>408938.3872013175</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11497228.11079585</v>
+        <v>11497228.11079584</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8245557.572415248</v>
+        <v>8245557.572415249</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>373.5066227187918</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>326.21898401466</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>20.64208871271452</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>109.6278847382019</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
         <v>171.8275718397997</v>
@@ -1466,10 +1466,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="13">
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>8.916258666857022</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.104422984974</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>146.2064320705069</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S14" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>96.84726682554658</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -1672,7 +1672,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,22 +1691,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>56.67722169632415</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,22 +1736,22 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S15" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>97.0323761121988</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
         <v>223.3842861340256</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>76.53519509961436</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.00010435294844</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,16 +1809,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.14329602706152</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>112.042992719836</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>194.7117974622146</v>
+        <v>134.7549293585491</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1928,13 +1928,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>93.66097190638529</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350706</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>86.89603752886885</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S18" t="n">
         <v>177.283526739121</v>
@@ -1979,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>73.16333729481136</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>7.226885210985958</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>73.35340349906451</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F20" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>169.1307812347862</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>45.04225203650417</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>382.2855674184499</v>
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13.82096383790468</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -2177,10 +2177,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>80.84345120350706</v>
+        <v>29.30018881027459</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S21" t="n">
         <v>177.283526739121</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>166.4571809719723</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>131.0804113283488</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>8.916258666857008</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>332.2779548450047</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>14.23277677768566</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>183.665669501079</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>59.72818959483787</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
@@ -2414,7 +2414,7 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>211.8662302997449</v>
@@ -2456,16 +2456,16 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V24" t="n">
-        <v>63.00127826324853</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80.39631948615289</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>152.1044229849741</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>217.1412728141684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>52.45816323286396</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>101.3929530046534</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>194.7117974622146</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X26" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>25.51853012769031</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T27" t="n">
         <v>211.8662302997449</v>
@@ -2693,16 +2693,16 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>56.46068531079827</v>
       </c>
       <c r="W27" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="28">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>143.1707573968352</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
-        <v>13.34656408270064</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>185.5090622027478</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2876,22 +2876,22 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>152.1842739291759</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>230.6000581269331</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>129.4825785166959</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>129.4825785166959</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>164.9273782470493</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I32" t="n">
-        <v>185.5090622027478</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>20.16716195081004</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="33">
@@ -3110,13 +3110,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>33.86495426966705</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -3125,10 +3125,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H33" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>174.9736443677892</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>76.53519509961433</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>7.226885210985831</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>99.55812942417211</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U35" t="n">
-        <v>112.7443747060707</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="36">
@@ -3344,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -3398,16 +3398,16 @@
         <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
-        <v>149.9556905571113</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>199.2180566268438</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>76.53519509961436</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>245.1090151844499</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>52.42857711587138</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S38" t="n">
-        <v>145.2490382381322</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>26.59931705666359</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>103.1414807482851</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>86.89603752886885</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>52.83095197083637</v>
       </c>
     </row>
     <row r="40">
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>123.1434003800101</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>8.916258666857072</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.8455033966935</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
-        <v>209.0494458537802</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X41" t="n">
         <v>359.7827142947061</v>
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>151.1684166339614</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>116.4507311609906</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3884,7 +3884,7 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>16.9345688696496</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>7.226885210985831</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>319.0104922613585</v>
+        <v>191.0170317037258</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -4055,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T45" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U45" t="n">
-        <v>63.5052130648989</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>150.9140187093917</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>7.226885210985951</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>8.916258666857136</v>
       </c>
       <c r="W46" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C11" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D11" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E11" t="n">
-        <v>1386.218517454924</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F11" t="n">
-        <v>978.9465481215775</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G11" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H11" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I11" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887603007</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K11" t="n">
         <v>253.8975067193751</v>
@@ -5050,7 +5050,7 @@
         <v>525.528369138972</v>
       </c>
       <c r="M11" t="n">
-        <v>856.6460009292778</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N11" t="n">
         <v>1186.279026157782</v>
@@ -5059,7 +5059,7 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P11" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q11" t="n">
         <v>1715.732642722258</v>
@@ -5074,19 +5074,19 @@
         <v>1715.732642722258</v>
       </c>
       <c r="U11" t="n">
-        <v>1715.732642722258</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V11" t="n">
-        <v>1715.732642722258</v>
+        <v>1139.050666958494</v>
       </c>
       <c r="W11" t="n">
-        <v>1715.732642722258</v>
+        <v>797.7411075385278</v>
       </c>
       <c r="X11" t="n">
-        <v>1715.732642722258</v>
+        <v>797.7411075385278</v>
       </c>
       <c r="Y11" t="n">
-        <v>1715.732642722258</v>
+        <v>411.5940697421137</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1019.073505721374</v>
+        <v>678.5547228315151</v>
       </c>
       <c r="C12" t="n">
-        <v>829.6612314543372</v>
+        <v>678.5547228315151</v>
       </c>
       <c r="D12" t="n">
-        <v>718.9259943450423</v>
+        <v>517.7746065925468</v>
       </c>
       <c r="E12" t="n">
-        <v>545.3627904664568</v>
+        <v>344.2114027139612</v>
       </c>
       <c r="F12" t="n">
-        <v>384.9350741837009</v>
+        <v>183.7836864312053</v>
       </c>
       <c r="G12" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I12" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025865</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K12" t="n">
-        <v>215.5091216889813</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L12" t="n">
-        <v>498.4142537443595</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M12" t="n">
-        <v>770.125479802903</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N12" t="n">
         <v>1173.359244302914</v>
@@ -5144,28 +5144,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R12" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S12" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T12" t="n">
-        <v>1501.726349490192</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U12" t="n">
-        <v>1262.153223817739</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="V12" t="n">
-        <v>1019.073505721374</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="W12" t="n">
-        <v>1019.073505721374</v>
+        <v>1144.554004938799</v>
       </c>
       <c r="X12" t="n">
-        <v>1019.073505721374</v>
+        <v>925.0460105554951</v>
       </c>
       <c r="Y12" t="n">
-        <v>1019.073505721374</v>
+        <v>699.4053174908227</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>334.857675380022</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="C13" t="n">
-        <v>334.857675380022</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="D13" t="n">
-        <v>334.857675380022</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="E13" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F13" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G13" t="n">
-        <v>334.857675380022</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H13" t="n">
-        <v>181.2168440820685</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I13" t="n">
         <v>34.31465285444516</v>
@@ -5202,49 +5202,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K13" t="n">
-        <v>42.23041924514568</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L13" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M13" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N13" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O13" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P13" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q13" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R13" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S13" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T13" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U13" t="n">
-        <v>334.857675380022</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="V13" t="n">
-        <v>334.857675380022</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="W13" t="n">
-        <v>334.857675380022</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="X13" t="n">
-        <v>334.857675380022</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="Y13" t="n">
-        <v>334.857675380022</v>
+        <v>43.32097474015933</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.31465285444515</v>
+        <v>944.7966235407509</v>
       </c>
       <c r="C14" t="n">
-        <v>34.31465285444515</v>
+        <v>944.7966235407509</v>
       </c>
       <c r="D14" t="n">
-        <v>34.31465285444515</v>
+        <v>603.6126239021376</v>
       </c>
       <c r="E14" t="n">
-        <v>34.31465285444515</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F14" t="n">
-        <v>34.31465285444515</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G14" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H14" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I14" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887602982</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K14" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389716</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292773</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N14" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157783</v>
       </c>
       <c r="O14" t="n">
-        <v>1460.632785841148</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P14" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q14" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R14" t="n">
-        <v>1610.227176505314</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S14" t="n">
-        <v>1413.548593210148</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T14" t="n">
-        <v>1315.723071164142</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U14" t="n">
-        <v>1063.162088944975</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V14" t="n">
-        <v>739.0410954003776</v>
+        <v>1286.106182960717</v>
       </c>
       <c r="W14" t="n">
-        <v>397.731535980411</v>
+        <v>944.7966235407509</v>
       </c>
       <c r="X14" t="n">
-        <v>34.31465285444515</v>
+        <v>944.7966235407509</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.31465285444515</v>
+        <v>944.7966235407509</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1044.708052015509</v>
+        <v>397.290131000067</v>
       </c>
       <c r="C15" t="n">
-        <v>855.2957777484723</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="D15" t="n">
-        <v>694.5156615095041</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E15" t="n">
-        <v>520.9524576309185</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5247413481626</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G15" t="n">
-        <v>211.0557077714025</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H15" t="n">
-        <v>91.56437173962107</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I15" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J15" t="n">
-        <v>54.40930111025865</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K15" t="n">
-        <v>54.40930111025865</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L15" t="n">
-        <v>337.3144331656368</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M15" t="n">
-        <v>712.2060427186982</v>
+        <v>679.5863020207055</v>
       </c>
       <c r="N15" t="n">
-        <v>1115.439807218709</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O15" t="n">
-        <v>1428.572841265603</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P15" t="n">
-        <v>1625.19346494006</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q15" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R15" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S15" t="n">
-        <v>1448.884598007116</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T15" t="n">
-        <v>1448.884598007116</v>
+        <v>1529.94636631714</v>
       </c>
       <c r="U15" t="n">
-        <v>1448.884598007116</v>
+        <v>1290.373240644687</v>
       </c>
       <c r="V15" t="n">
-        <v>1448.884598007116</v>
+        <v>1290.373240644687</v>
       </c>
       <c r="W15" t="n">
-        <v>1448.884598007116</v>
+        <v>1020.974671374978</v>
       </c>
       <c r="X15" t="n">
-        <v>1448.884598007116</v>
+        <v>801.4666769916744</v>
       </c>
       <c r="Y15" t="n">
-        <v>1223.243904942444</v>
+        <v>575.8259839270021</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.81980876651429</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="C16" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D16" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E16" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F16" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G16" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H16" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I16" t="n">
-        <v>84.81980876651429</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J16" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K16" t="n">
-        <v>42.23041924514568</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L16" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M16" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N16" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O16" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P16" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.9755581809699</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R16" t="n">
-        <v>84.81980876651429</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S16" t="n">
-        <v>84.81980876651429</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T16" t="n">
-        <v>84.81980876651429</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="U16" t="n">
-        <v>84.81980876651429</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="V16" t="n">
-        <v>84.81980876651429</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="W16" t="n">
-        <v>84.81980876651429</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="X16" t="n">
-        <v>84.81980876651429</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.81980876651429</v>
+        <v>111.6229307328435</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>836.8666174463841</v>
+        <v>1579.616552461097</v>
       </c>
       <c r="C17" t="n">
-        <v>483.1236907987287</v>
+        <v>1579.616552461097</v>
       </c>
       <c r="D17" t="n">
-        <v>483.1236907987287</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="E17" t="n">
-        <v>483.1236907987287</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F17" t="n">
-        <v>483.1236907987287</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G17" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H17" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I17" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602982</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K17" t="n">
-        <v>253.8975067193749</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L17" t="n">
-        <v>525.5283691389718</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292776</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N17" t="n">
         <v>1186.279026157782</v>
@@ -5536,31 +5536,31 @@
         <v>1650.639799716935</v>
       </c>
       <c r="Q17" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R17" t="n">
-        <v>1610.227176505314</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S17" t="n">
-        <v>1413.548593210148</v>
+        <v>1579.616552461097</v>
       </c>
       <c r="T17" t="n">
-        <v>1413.548593210148</v>
+        <v>1579.616552461097</v>
       </c>
       <c r="U17" t="n">
-        <v>1160.987610990982</v>
+        <v>1579.616552461097</v>
       </c>
       <c r="V17" t="n">
-        <v>836.8666174463841</v>
+        <v>1579.616552461097</v>
       </c>
       <c r="W17" t="n">
-        <v>836.8666174463841</v>
+        <v>1579.616552461097</v>
       </c>
       <c r="X17" t="n">
-        <v>836.8666174463841</v>
+        <v>1579.616552461097</v>
       </c>
       <c r="Y17" t="n">
-        <v>836.8666174463841</v>
+        <v>1579.616552461097</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>734.3373412894316</v>
+        <v>397.2901310000669</v>
       </c>
       <c r="C18" t="n">
-        <v>544.9250670223953</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="D18" t="n">
-        <v>384.144950783427</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E18" t="n">
-        <v>210.5817469048415</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F18" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G18" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I18" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J18" t="n">
-        <v>54.40930111025865</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K18" t="n">
-        <v>112.3287381944629</v>
+        <v>112.3287381944628</v>
       </c>
       <c r="L18" t="n">
         <v>395.2338702498411</v>
       </c>
       <c r="M18" t="n">
-        <v>770.1254798029025</v>
+        <v>770.1254798029026</v>
       </c>
       <c r="N18" t="n">
         <v>1173.359244302914</v>
@@ -5612,34 +5612,34 @@
         <v>1486.492278349808</v>
       </c>
       <c r="P18" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q18" t="n">
-        <v>1715.732642722257</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R18" t="n">
         <v>1627.958867440572</v>
       </c>
       <c r="S18" t="n">
-        <v>1448.884598007116</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T18" t="n">
-        <v>1448.884598007116</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U18" t="n">
-        <v>1448.884598007116</v>
+        <v>1209.311472334664</v>
       </c>
       <c r="V18" t="n">
-        <v>1448.884598007116</v>
+        <v>966.2317542382978</v>
       </c>
       <c r="W18" t="n">
-        <v>1179.486028737408</v>
+        <v>696.8331849685891</v>
       </c>
       <c r="X18" t="n">
-        <v>959.978034354104</v>
+        <v>622.9308240647392</v>
       </c>
       <c r="Y18" t="n">
-        <v>734.3373412894316</v>
+        <v>397.2901310000669</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>108.4089998231972</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="C19" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D19" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E19" t="n">
-        <v>108.4089998231972</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F19" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G19" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H19" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I19" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J19" t="n">
-        <v>34.31465285444515</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K19" t="n">
-        <v>42.23041924514568</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L19" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M19" t="n">
-        <v>180.6961586662943</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N19" t="n">
-        <v>262.1720788316462</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O19" t="n">
-        <v>315.4306320098955</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P19" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q19" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R19" t="n">
-        <v>334.857675380022</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S19" t="n">
-        <v>108.4089998231972</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T19" t="n">
-        <v>108.4089998231972</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U19" t="n">
-        <v>108.4089998231972</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V19" t="n">
-        <v>108.4089998231972</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W19" t="n">
-        <v>108.4089998231972</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="X19" t="n">
-        <v>108.4089998231972</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="Y19" t="n">
-        <v>108.4089998231972</v>
+        <v>41.61453690594612</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>966.1687217998781</v>
+        <v>763.2888038067836</v>
       </c>
       <c r="C20" t="n">
-        <v>612.4257951522227</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="D20" t="n">
-        <v>612.4257951522227</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="E20" t="n">
-        <v>612.4257951522227</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F20" t="n">
-        <v>205.1538258188757</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G20" t="n">
-        <v>205.1538258188757</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I20" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887602939</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8975067193746</v>
+        <v>253.897506719376</v>
       </c>
       <c r="L20" t="n">
-        <v>525.5283691389716</v>
+        <v>525.5283691389729</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292774</v>
+        <v>856.6460009292791</v>
       </c>
       <c r="N20" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157784</v>
       </c>
       <c r="O20" t="n">
-        <v>1460.632785841148</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P20" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q20" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R20" t="n">
-        <v>1715.732642722258</v>
+        <v>1670.235418442962</v>
       </c>
       <c r="S20" t="n">
-        <v>1715.732642722258</v>
+        <v>1473.556835147795</v>
       </c>
       <c r="T20" t="n">
-        <v>1715.732642722258</v>
+        <v>1473.556835147795</v>
       </c>
       <c r="U20" t="n">
-        <v>1715.732642722258</v>
+        <v>1473.556835147795</v>
       </c>
       <c r="V20" t="n">
-        <v>1715.732642722258</v>
+        <v>1149.435841603198</v>
       </c>
       <c r="W20" t="n">
-        <v>1715.732642722258</v>
+        <v>1149.435841603198</v>
       </c>
       <c r="X20" t="n">
-        <v>1352.315759596292</v>
+        <v>1149.435841603198</v>
       </c>
       <c r="Y20" t="n">
-        <v>966.1687217998781</v>
+        <v>763.2888038067836</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1069.118384851047</v>
+        <v>547.3707569059554</v>
       </c>
       <c r="C21" t="n">
-        <v>879.7061105840106</v>
+        <v>547.3707569059554</v>
       </c>
       <c r="D21" t="n">
-        <v>718.9259943450423</v>
+        <v>547.3707569059554</v>
       </c>
       <c r="E21" t="n">
-        <v>545.3627904664568</v>
+        <v>373.8075530273699</v>
       </c>
       <c r="F21" t="n">
-        <v>384.9350741837009</v>
+        <v>213.379836744614</v>
       </c>
       <c r="G21" t="n">
-        <v>235.4660406069408</v>
+        <v>63.91080316785386</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9747045751594</v>
+        <v>63.91080316785386</v>
       </c>
       <c r="I21" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J21" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K21" t="n">
-        <v>195.4144734331678</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="L21" t="n">
-        <v>478.319605488546</v>
+        <v>317.2197849098234</v>
       </c>
       <c r="M21" t="n">
-        <v>853.2112150416074</v>
+        <v>692.111394462885</v>
       </c>
       <c r="N21" t="n">
-        <v>1256.444979541619</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O21" t="n">
-        <v>1569.578013588512</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P21" t="n">
-        <v>1625.19346494006</v>
+        <v>1637.71855738224</v>
       </c>
       <c r="Q21" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R21" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S21" t="n">
-        <v>1536.658373288802</v>
+        <v>1448.884598007118</v>
       </c>
       <c r="T21" t="n">
-        <v>1322.652080056737</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U21" t="n">
-        <v>1083.078954384284</v>
+        <v>995.3051791025991</v>
       </c>
       <c r="V21" t="n">
-        <v>1083.078954384284</v>
+        <v>995.3051791025991</v>
       </c>
       <c r="W21" t="n">
-        <v>1083.078954384284</v>
+        <v>725.9066098328905</v>
       </c>
       <c r="X21" t="n">
-        <v>1083.078954384284</v>
+        <v>725.9066098328905</v>
       </c>
       <c r="Y21" t="n">
-        <v>1083.078954384284</v>
+        <v>725.9066098328905</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1715.732642722258</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="C22" t="n">
-        <v>1547.594076083902</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="D22" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="E22" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="F22" t="n">
-        <v>1415.189620196681</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="G22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J22" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K22" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L22" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M22" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N22" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O22" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T22" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U22" t="n">
-        <v>1715.732642722258</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="V22" t="n">
-        <v>1715.732642722258</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="W22" t="n">
-        <v>1715.732642722258</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="X22" t="n">
-        <v>1715.732642722258</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="Y22" t="n">
-        <v>1715.732642722258</v>
+        <v>43.32097474015933</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1166.794881312374</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="C23" t="n">
-        <v>1166.794881312374</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="D23" t="n">
-        <v>1166.794881312374</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="E23" t="n">
-        <v>791.5636570076908</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="F23" t="n">
-        <v>791.5636570076908</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G23" t="n">
         <v>369.9489506776823</v>
@@ -5989,16 +5989,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.26440887602939</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K23" t="n">
-        <v>253.8975067193745</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389716</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292774</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N23" t="n">
         <v>1186.279026157782</v>
@@ -6007,7 +6007,7 @@
         <v>1460.632785841149</v>
       </c>
       <c r="P23" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q23" t="n">
         <v>1715.732642722258</v>
@@ -6016,25 +6016,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S23" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T23" t="n">
-        <v>1715.732642722258</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U23" t="n">
-        <v>1715.732642722258</v>
+        <v>1504.67751722741</v>
       </c>
       <c r="V23" t="n">
-        <v>1715.732642722258</v>
+        <v>1504.67751722741</v>
       </c>
       <c r="W23" t="n">
-        <v>1715.732642722258</v>
+        <v>1163.367957807443</v>
       </c>
       <c r="X23" t="n">
-        <v>1352.315759596292</v>
+        <v>1163.367957807443</v>
       </c>
       <c r="Y23" t="n">
-        <v>1166.794881312374</v>
+        <v>777.2209200110292</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>533.6236769809974</v>
+        <v>524.034243386993</v>
       </c>
       <c r="C24" t="n">
-        <v>344.2114027139611</v>
+        <v>524.034243386993</v>
       </c>
       <c r="D24" t="n">
-        <v>344.2114027139611</v>
+        <v>524.034243386993</v>
       </c>
       <c r="E24" t="n">
-        <v>344.2114027139611</v>
+        <v>463.7027387457426</v>
       </c>
       <c r="F24" t="n">
-        <v>183.7836864312052</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G24" t="n">
-        <v>34.31465285444516</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H24" t="n">
         <v>34.31465285444516</v>
@@ -6068,52 +6068,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J24" t="n">
-        <v>54.40930111025867</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K24" t="n">
-        <v>54.40930111025867</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L24" t="n">
-        <v>337.3144331656368</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M24" t="n">
-        <v>712.2060427186984</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N24" t="n">
-        <v>1115.43980721871</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O24" t="n">
-        <v>1428.572841265604</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P24" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q24" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1627.958867440572</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S24" t="n">
-        <v>1448.884598007117</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T24" t="n">
-        <v>1234.878304775051</v>
+        <v>1501.726349490193</v>
       </c>
       <c r="U24" t="n">
-        <v>995.3051791025982</v>
+        <v>1262.15322381774</v>
       </c>
       <c r="V24" t="n">
-        <v>931.6675242912361</v>
+        <v>1019.073505721374</v>
       </c>
       <c r="W24" t="n">
-        <v>931.6675242912361</v>
+        <v>749.6749364516653</v>
       </c>
       <c r="X24" t="n">
-        <v>712.1595299079324</v>
+        <v>749.6749364516653</v>
       </c>
       <c r="Y24" t="n">
-        <v>712.1595299079324</v>
+        <v>524.034243386993</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1415.189620196681</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="C25" t="n">
-        <v>1415.189620196681</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="D25" t="n">
-        <v>1415.189620196681</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="E25" t="n">
-        <v>1415.189620196681</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="F25" t="n">
-        <v>1415.189620196681</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="G25" t="n">
-        <v>1415.189620196681</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="H25" t="n">
-        <v>1415.189620196681</v>
+        <v>181.2168440820684</v>
       </c>
       <c r="I25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J25" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L25" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M25" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N25" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O25" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X25" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Y25" t="n">
-        <v>1496.398023718047</v>
+        <v>334.8576753800221</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>34.31465285444516</v>
+        <v>490.4747037492252</v>
       </c>
       <c r="C26" t="n">
-        <v>34.31465285444516</v>
+        <v>136.7317771015698</v>
       </c>
       <c r="D26" t="n">
         <v>34.31465285444516</v>
@@ -6235,10 +6235,10 @@
         <v>525.528369138972</v>
       </c>
       <c r="M26" t="n">
-        <v>856.646000929278</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N26" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O26" t="n">
         <v>1460.632785841149</v>
@@ -6256,22 +6256,22 @@
         <v>1413.548593210149</v>
       </c>
       <c r="T26" t="n">
-        <v>1413.548593210149</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="U26" t="n">
-        <v>1160.987610990983</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="V26" t="n">
-        <v>836.8666174463846</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="W26" t="n">
-        <v>836.8666174463846</v>
+        <v>853.891586875191</v>
       </c>
       <c r="X26" t="n">
-        <v>473.4497343204188</v>
+        <v>490.4747037492252</v>
       </c>
       <c r="Y26" t="n">
-        <v>87.30269652400472</v>
+        <v>490.4747037492252</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>571.1390835247298</v>
+        <v>223.7269271214815</v>
       </c>
       <c r="C27" t="n">
-        <v>571.1390835247298</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D27" t="n">
-        <v>571.1390835247298</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E27" t="n">
-        <v>545.3627904664568</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F27" t="n">
-        <v>384.9350741837009</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G27" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I27" t="n">
         <v>34.31465285444516</v>
@@ -6308,49 +6308,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K27" t="n">
-        <v>34.31465285444516</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L27" t="n">
-        <v>317.2197849098234</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M27" t="n">
-        <v>692.111394462885</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N27" t="n">
-        <v>1095.345158962896</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O27" t="n">
-        <v>1408.47819300979</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P27" t="n">
-        <v>1637.71855738224</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q27" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R27" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S27" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T27" t="n">
-        <v>1501.726349490192</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U27" t="n">
-        <v>1262.153223817739</v>
+        <v>995.3051791025987</v>
       </c>
       <c r="V27" t="n">
-        <v>1019.073505721374</v>
+        <v>938.2741838391661</v>
       </c>
       <c r="W27" t="n">
-        <v>749.6749364516648</v>
+        <v>668.8756145694574</v>
       </c>
       <c r="X27" t="n">
-        <v>749.6749364516648</v>
+        <v>449.3676201861538</v>
       </c>
       <c r="Y27" t="n">
-        <v>749.6749364516648</v>
+        <v>223.7269271214815</v>
       </c>
     </row>
     <row r="28">
@@ -6387,13 +6387,13 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K28" t="n">
-        <v>42.23041924514571</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L28" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M28" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N28" t="n">
         <v>262.1720788316463</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>610.4101461343286</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="C29" t="n">
-        <v>610.4101461343286</v>
+        <v>1050.584219631688</v>
       </c>
       <c r="D29" t="n">
-        <v>610.4101461343286</v>
+        <v>1050.584219631688</v>
       </c>
       <c r="E29" t="n">
-        <v>235.1789218296456</v>
+        <v>1050.584219631688</v>
       </c>
       <c r="F29" t="n">
-        <v>235.1789218296456</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="G29" t="n">
-        <v>235.1789218296456</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H29" t="n">
         <v>221.6975439683318</v>
@@ -6463,52 +6463,52 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.2644088760299</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K29" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L29" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292782</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N29" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O29" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P29" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q29" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R29" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S29" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T29" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="U29" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="V29" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="W29" t="n">
-        <v>1374.423083302291</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="X29" t="n">
-        <v>1374.423083302291</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="Y29" t="n">
-        <v>988.2760455058774</v>
+        <v>1195.201146295158</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>758.8692350353185</v>
+        <v>711.7917360563847</v>
       </c>
       <c r="C30" t="n">
-        <v>569.4569607682822</v>
+        <v>522.3794617893484</v>
       </c>
       <c r="D30" t="n">
-        <v>569.4569607682822</v>
+        <v>361.5993455503801</v>
       </c>
       <c r="E30" t="n">
-        <v>395.8937568896967</v>
+        <v>188.0361416717946</v>
       </c>
       <c r="F30" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G30" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I30" t="n">
         <v>34.31465285444516</v>
@@ -6545,49 +6545,49 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K30" t="n">
-        <v>195.4144734331679</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L30" t="n">
-        <v>478.3196054885461</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M30" t="n">
-        <v>853.2112150416076</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N30" t="n">
-        <v>1082.820066520716</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O30" t="n">
-        <v>1395.95310056761</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P30" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q30" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
-        <v>1627.958867440572</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S30" t="n">
-        <v>1448.884598007117</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T30" t="n">
-        <v>1234.878304775051</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U30" t="n">
-        <v>1234.878304775051</v>
+        <v>1174.379448536054</v>
       </c>
       <c r="V30" t="n">
-        <v>991.7985866786853</v>
+        <v>931.2997304396883</v>
       </c>
       <c r="W30" t="n">
-        <v>758.8692350353185</v>
+        <v>931.2997304396883</v>
       </c>
       <c r="X30" t="n">
-        <v>758.8692350353185</v>
+        <v>711.7917360563847</v>
       </c>
       <c r="Y30" t="n">
-        <v>758.8692350353185</v>
+        <v>711.7917360563847</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>204.0671920298242</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="C31" t="n">
-        <v>204.0671920298242</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="D31" t="n">
-        <v>204.0671920298242</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="E31" t="n">
-        <v>204.0671920298242</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="F31" t="n">
-        <v>204.0671920298242</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="G31" t="n">
-        <v>34.31465285444516</v>
+        <v>165.105136204643</v>
       </c>
       <c r="H31" t="n">
-        <v>34.31465285444516</v>
+        <v>165.105136204643</v>
       </c>
       <c r="I31" t="n">
         <v>34.31465285444516</v>
@@ -6624,13 +6624,13 @@
         <v>34.31465285444516</v>
       </c>
       <c r="K31" t="n">
-        <v>42.23041924514571</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L31" t="n">
-        <v>105.4471208306432</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M31" t="n">
-        <v>180.6961586662944</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N31" t="n">
         <v>262.1720788316463</v>
@@ -6651,22 +6651,22 @@
         <v>334.8576753800221</v>
       </c>
       <c r="T31" t="n">
-        <v>204.0671920298242</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U31" t="n">
-        <v>204.0671920298242</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V31" t="n">
-        <v>204.0671920298242</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W31" t="n">
-        <v>204.0671920298242</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X31" t="n">
-        <v>204.0671920298242</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Y31" t="n">
-        <v>204.0671920298242</v>
+        <v>334.8576753800221</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1695.361772064874</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="C32" t="n">
-        <v>1695.361772064874</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="D32" t="n">
-        <v>1354.177772426261</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="E32" t="n">
-        <v>978.9465481215775</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="F32" t="n">
-        <v>978.9465481215775</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G32" t="n">
-        <v>557.3318417915689</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H32" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J32" t="n">
-        <v>79.26440887602973</v>
+        <v>79.2644088760303</v>
       </c>
       <c r="K32" t="n">
-        <v>253.897506719375</v>
+        <v>253.897506719376</v>
       </c>
       <c r="L32" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389729</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292789</v>
       </c>
       <c r="N32" t="n">
-        <v>1186.279026157782</v>
+        <v>1186.279026157784</v>
       </c>
       <c r="O32" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P32" t="n">
-        <v>1650.639799716935</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q32" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R32" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="S32" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="T32" t="n">
-        <v>1695.361772064874</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="U32" t="n">
-        <v>1695.361772064874</v>
+        <v>1610.227176505316</v>
       </c>
       <c r="V32" t="n">
-        <v>1695.361772064874</v>
+        <v>1286.106182960718</v>
       </c>
       <c r="W32" t="n">
-        <v>1695.361772064874</v>
+        <v>1286.106182960718</v>
       </c>
       <c r="X32" t="n">
-        <v>1695.361772064874</v>
+        <v>922.6892998347521</v>
       </c>
       <c r="Y32" t="n">
-        <v>1695.361772064874</v>
+        <v>536.5422620383381</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>579.569814981272</v>
+        <v>867.9669970985514</v>
       </c>
       <c r="C33" t="n">
-        <v>579.569814981272</v>
+        <v>678.5547228315151</v>
       </c>
       <c r="D33" t="n">
-        <v>579.569814981272</v>
+        <v>517.7746065925468</v>
       </c>
       <c r="E33" t="n">
-        <v>545.3627904664568</v>
+        <v>344.2114027139612</v>
       </c>
       <c r="F33" t="n">
-        <v>384.9350741837009</v>
+        <v>183.7836864312053</v>
       </c>
       <c r="G33" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I33" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025868</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K33" t="n">
-        <v>54.40930111025868</v>
+        <v>112.3287381944638</v>
       </c>
       <c r="L33" t="n">
-        <v>337.3144331656369</v>
+        <v>395.233870249842</v>
       </c>
       <c r="M33" t="n">
-        <v>712.2060427186984</v>
+        <v>770.1254798029036</v>
       </c>
       <c r="N33" t="n">
-        <v>1115.43980721871</v>
+        <v>1173.359244302915</v>
       </c>
       <c r="O33" t="n">
-        <v>1428.572841265604</v>
+        <v>1486.492278349809</v>
       </c>
       <c r="P33" t="n">
-        <v>1625.19346494006</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="Q33" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R33" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S33" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007118</v>
       </c>
       <c r="T33" t="n">
-        <v>1715.732642722258</v>
+        <v>1272.143543090159</v>
       </c>
       <c r="U33" t="n">
-        <v>1715.732642722258</v>
+        <v>1272.143543090159</v>
       </c>
       <c r="V33" t="n">
-        <v>1472.652924625892</v>
+        <v>1272.143543090159</v>
       </c>
       <c r="W33" t="n">
-        <v>1203.254355356183</v>
+        <v>1272.143543090159</v>
       </c>
       <c r="X33" t="n">
-        <v>983.7463609728795</v>
+        <v>1272.143543090159</v>
       </c>
       <c r="Y33" t="n">
-        <v>758.1056679082071</v>
+        <v>1046.502850025486</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="C34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="D34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="E34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="F34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="G34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K34" t="n">
-        <v>1423.105386587381</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L34" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M34" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N34" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O34" t="n">
-        <v>1696.305599352131</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R34" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S34" t="n">
-        <v>1715.732642722258</v>
+        <v>257.5493975016238</v>
       </c>
       <c r="T34" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="U34" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="V34" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="W34" t="n">
-        <v>1422.489504248182</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="X34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="Y34" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444518</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1238.432552822484</v>
+        <v>556.4931262795772</v>
       </c>
       <c r="C35" t="n">
-        <v>1238.432552822484</v>
+        <v>556.4931262795772</v>
       </c>
       <c r="D35" t="n">
-        <v>1238.432552822484</v>
+        <v>556.4931262795772</v>
       </c>
       <c r="E35" t="n">
-        <v>863.2013285178008</v>
+        <v>556.4931262795772</v>
       </c>
       <c r="F35" t="n">
-        <v>455.9293591844538</v>
+        <v>556.4931262795772</v>
       </c>
       <c r="G35" t="n">
-        <v>34.31465285444516</v>
+        <v>134.8784199495685</v>
       </c>
       <c r="H35" t="n">
         <v>34.31465285444516</v>
@@ -6937,22 +6937,22 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887602985</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K35" t="n">
-        <v>253.8975067193753</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L35" t="n">
-        <v>525.5283691389723</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292782</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N35" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P35" t="n">
         <v>1650.639799716936</v>
@@ -6961,28 +6961,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R35" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S35" t="n">
-        <v>1715.732642722258</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T35" t="n">
-        <v>1715.732642722258</v>
+        <v>1195.201146295158</v>
       </c>
       <c r="U35" t="n">
-        <v>1601.84943594845</v>
+        <v>942.6401640759913</v>
       </c>
       <c r="V35" t="n">
-        <v>1601.84943594845</v>
+        <v>942.6401640759913</v>
       </c>
       <c r="W35" t="n">
-        <v>1601.84943594845</v>
+        <v>942.6401640759913</v>
       </c>
       <c r="X35" t="n">
-        <v>1238.432552822484</v>
+        <v>942.6401640759913</v>
       </c>
       <c r="Y35" t="n">
-        <v>1238.432552822484</v>
+        <v>556.4931262795772</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>545.3627904664568</v>
+        <v>1069.118384851047</v>
       </c>
       <c r="C36" t="n">
-        <v>545.3627904664568</v>
+        <v>879.7061105840106</v>
       </c>
       <c r="D36" t="n">
-        <v>545.3627904664568</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="E36" t="n">
         <v>545.3627904664568</v>
@@ -7019,13 +7019,13 @@
         <v>54.40930111025869</v>
       </c>
       <c r="K36" t="n">
-        <v>112.3287381944633</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L36" t="n">
-        <v>395.2338702498415</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M36" t="n">
-        <v>770.1254798029031</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N36" t="n">
         <v>1173.359244302914</v>
@@ -7046,22 +7046,22 @@
         <v>1448.884598007117</v>
       </c>
       <c r="T36" t="n">
-        <v>1297.414203504984</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U36" t="n">
-        <v>1057.841077832531</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="V36" t="n">
-        <v>814.7613597361654</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="W36" t="n">
-        <v>545.3627904664568</v>
+        <v>1247.654237777982</v>
       </c>
       <c r="X36" t="n">
-        <v>545.3627904664568</v>
+        <v>1247.654237777982</v>
       </c>
       <c r="Y36" t="n">
-        <v>545.3627904664568</v>
+        <v>1247.654237777982</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1415.189620196681</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="C37" t="n">
-        <v>1415.189620196681</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="D37" t="n">
-        <v>1415.189620196681</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="E37" t="n">
-        <v>1415.189620196681</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="F37" t="n">
-        <v>1415.189620196681</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="G37" t="n">
-        <v>1415.189620196681</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="H37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S37" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="U37" t="n">
-        <v>1715.732642722258</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="V37" t="n">
-        <v>1468.147778899582</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="W37" t="n">
-        <v>1415.189620196681</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="X37" t="n">
-        <v>1415.189620196681</v>
+        <v>111.6229307328435</v>
       </c>
       <c r="Y37" t="n">
-        <v>1415.189620196681</v>
+        <v>111.6229307328435</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>441.5866221877922</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="C38" t="n">
-        <v>441.5866221877922</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="D38" t="n">
-        <v>441.5866221877922</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E38" t="n">
-        <v>441.5866221877922</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F38" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G38" t="n">
         <v>34.31465285444516</v>
@@ -7174,19 +7174,19 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602962</v>
       </c>
       <c r="K38" t="n">
-        <v>253.8975067193753</v>
+        <v>253.8975067193746</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5283691389723</v>
+        <v>525.5283691389716</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292782</v>
+        <v>856.6460009292775</v>
       </c>
       <c r="N38" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O38" t="n">
         <v>1460.632785841149</v>
@@ -7198,28 +7198,28 @@
         <v>1715.732642722258</v>
       </c>
       <c r="R38" t="n">
-        <v>1715.732642722258</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S38" t="n">
-        <v>1569.016442481721</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T38" t="n">
-        <v>1569.016442481721</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U38" t="n">
-        <v>1569.016442481721</v>
+        <v>1583.359179478382</v>
       </c>
       <c r="V38" t="n">
-        <v>1569.016442481721</v>
+        <v>1583.359179478382</v>
       </c>
       <c r="W38" t="n">
-        <v>1569.016442481721</v>
+        <v>1583.359179478382</v>
       </c>
       <c r="X38" t="n">
-        <v>1205.599559355755</v>
+        <v>1219.942296352417</v>
       </c>
       <c r="Y38" t="n">
-        <v>819.452521559341</v>
+        <v>833.7952585560026</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>661.9011611699797</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="C39" t="n">
-        <v>472.4888869029434</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="D39" t="n">
-        <v>472.4888869029434</v>
+        <v>718.9259943450423</v>
       </c>
       <c r="E39" t="n">
-        <v>298.9256830243578</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F39" t="n">
-        <v>138.4979667416019</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G39" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H39" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I39" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J39" t="n">
-        <v>54.40930111025869</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K39" t="n">
-        <v>215.5091216889814</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L39" t="n">
-        <v>498.4142537443596</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M39" t="n">
-        <v>873.3058632974212</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N39" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O39" t="n">
-        <v>1395.953100567611</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P39" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q39" t="n">
         <v>1715.732642722258</v>
@@ -7280,25 +7280,25 @@
         <v>1627.958867440573</v>
       </c>
       <c r="S39" t="n">
-        <v>1627.958867440573</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T39" t="n">
-        <v>1413.952574208507</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U39" t="n">
-        <v>1174.379448536054</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="V39" t="n">
-        <v>931.2997304396883</v>
+        <v>991.7985866786858</v>
       </c>
       <c r="W39" t="n">
-        <v>661.9011611699797</v>
+        <v>991.7985866786858</v>
       </c>
       <c r="X39" t="n">
-        <v>661.9011611699797</v>
+        <v>772.2905922953821</v>
       </c>
       <c r="Y39" t="n">
-        <v>661.9011611699797</v>
+        <v>718.9259943450423</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722258</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="T40" t="n">
-        <v>1715.732642722258</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="U40" t="n">
-        <v>1424.195942082396</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="V40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y40" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>763.2888038067836</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C41" t="n">
-        <v>409.5458771591282</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D41" t="n">
-        <v>409.5458771591282</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E41" t="n">
         <v>34.31465285444516</v>
@@ -7411,16 +7411,16 @@
         <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
-        <v>79.26440887602993</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K41" t="n">
-        <v>253.8975067193751</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L41" t="n">
         <v>525.528369138972</v>
       </c>
       <c r="M41" t="n">
-        <v>856.6460009292779</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N41" t="n">
         <v>1186.279026157783</v>
@@ -7438,25 +7438,25 @@
         <v>1715.732642722258</v>
       </c>
       <c r="S41" t="n">
-        <v>1715.732642722258</v>
+        <v>1534.070518079133</v>
       </c>
       <c r="T41" t="n">
-        <v>1715.732642722258</v>
+        <v>1315.723071164142</v>
       </c>
       <c r="U41" t="n">
-        <v>1504.571586304298</v>
+        <v>1063.162088944975</v>
       </c>
       <c r="V41" t="n">
-        <v>1504.571586304298</v>
+        <v>739.0410954003776</v>
       </c>
       <c r="W41" t="n">
-        <v>1504.571586304298</v>
+        <v>397.731535980411</v>
       </c>
       <c r="X41" t="n">
-        <v>1141.154703178333</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y41" t="n">
-        <v>1141.154703178333</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>710.76561757637</v>
+        <v>312.7217702661312</v>
       </c>
       <c r="C42" t="n">
-        <v>521.3533433093337</v>
+        <v>312.7217702661312</v>
       </c>
       <c r="D42" t="n">
-        <v>360.5732270703654</v>
+        <v>151.941654027163</v>
       </c>
       <c r="E42" t="n">
-        <v>187.0100231917799</v>
+        <v>151.941654027163</v>
       </c>
       <c r="F42" t="n">
-        <v>34.31465285444516</v>
+        <v>151.941654027163</v>
       </c>
       <c r="G42" t="n">
         <v>34.31465285444516</v>
@@ -7502,13 +7502,13 @@
         <v>873.3058632974213</v>
       </c>
       <c r="N42" t="n">
-        <v>1173.359244302914</v>
+        <v>1082.820066520716</v>
       </c>
       <c r="O42" t="n">
-        <v>1486.492278349808</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P42" t="n">
-        <v>1715.732642722258</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q42" t="n">
         <v>1715.732642722258</v>
@@ -7532,10 +7532,10 @@
         <v>936.4063106410423</v>
       </c>
       <c r="X42" t="n">
-        <v>936.4063106410423</v>
+        <v>716.8983162577387</v>
       </c>
       <c r="Y42" t="n">
-        <v>710.76561757637</v>
+        <v>491.2576231930663</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1415.189620196681</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="C43" t="n">
-        <v>1415.189620196681</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="D43" t="n">
-        <v>1415.189620196681</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="E43" t="n">
-        <v>1415.189620196681</v>
+        <v>191.7504620343404</v>
       </c>
       <c r="F43" t="n">
-        <v>1415.189620196681</v>
+        <v>51.42027797530335</v>
       </c>
       <c r="G43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J43" t="n">
-        <v>1415.189620196681</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L43" t="n">
-        <v>1486.322088172879</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M43" t="n">
-        <v>1561.57112600853</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N43" t="n">
-        <v>1643.047046173882</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O43" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U43" t="n">
-        <v>1715.732642722258</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V43" t="n">
-        <v>1708.432758670757</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W43" t="n">
-        <v>1415.189620196681</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="X43" t="n">
-        <v>1415.189620196681</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Y43" t="n">
-        <v>1415.189620196681</v>
+        <v>334.8576753800222</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1139.050666958494</v>
+        <v>988.2760455058776</v>
       </c>
       <c r="C44" t="n">
-        <v>1139.050666958494</v>
+        <v>634.5331188582222</v>
       </c>
       <c r="D44" t="n">
-        <v>1139.050666958494</v>
+        <v>634.5331188582222</v>
       </c>
       <c r="E44" t="n">
-        <v>763.8194426538108</v>
+        <v>634.5331188582222</v>
       </c>
       <c r="F44" t="n">
-        <v>356.5474733204638</v>
+        <v>227.2611495248752</v>
       </c>
       <c r="G44" t="n">
         <v>34.31465285444516</v>
@@ -7654,10 +7654,10 @@
         <v>253.8975067193751</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389718</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292779</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N44" t="n">
         <v>1186.279026157783</v>
@@ -7681,19 +7681,19 @@
         <v>1715.732642722258</v>
       </c>
       <c r="U44" t="n">
-        <v>1463.171660503092</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V44" t="n">
-        <v>1139.050666958494</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W44" t="n">
-        <v>1139.050666958494</v>
+        <v>1374.423083302292</v>
       </c>
       <c r="X44" t="n">
-        <v>1139.050666958494</v>
+        <v>1374.423083302292</v>
       </c>
       <c r="Y44" t="n">
-        <v>1139.050666958494</v>
+        <v>988.2760455058776</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>813.8951292517472</v>
+        <v>599.7870582694733</v>
       </c>
       <c r="C45" t="n">
-        <v>624.4828549847109</v>
+        <v>599.7870582694733</v>
       </c>
       <c r="D45" t="n">
-        <v>463.7027387457426</v>
+        <v>439.006942030505</v>
       </c>
       <c r="E45" t="n">
-        <v>463.7027387457426</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="F45" t="n">
-        <v>303.2750224629867</v>
+        <v>265.4437381519194</v>
       </c>
       <c r="G45" t="n">
-        <v>153.8059888862266</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H45" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I45" t="n">
         <v>34.31465285444516</v>
       </c>
       <c r="J45" t="n">
-        <v>34.31465285444516</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K45" t="n">
-        <v>34.31465285444516</v>
+        <v>112.3287381944628</v>
       </c>
       <c r="L45" t="n">
-        <v>317.2197849098234</v>
+        <v>395.2338702498411</v>
       </c>
       <c r="M45" t="n">
-        <v>692.1113944628851</v>
+        <v>770.1254798029026</v>
       </c>
       <c r="N45" t="n">
-        <v>1095.345158962896</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O45" t="n">
-        <v>1408.47819300979</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P45" t="n">
-        <v>1637.71855738224</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q45" t="n">
         <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1715.732642722258</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S45" t="n">
-        <v>1715.732642722258</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T45" t="n">
-        <v>1501.726349490193</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U45" t="n">
-        <v>1437.579669626658</v>
+        <v>995.3051791025985</v>
       </c>
       <c r="V45" t="n">
-        <v>1437.579669626658</v>
+        <v>752.2254610062325</v>
       </c>
       <c r="W45" t="n">
-        <v>1437.579669626658</v>
+        <v>599.7870582694733</v>
       </c>
       <c r="X45" t="n">
-        <v>1218.071675243355</v>
+        <v>599.7870582694733</v>
       </c>
       <c r="Y45" t="n">
-        <v>992.4309821786824</v>
+        <v>599.7870582694733</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.61453690594612</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C46" t="n">
-        <v>41.61453690594612</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D46" t="n">
-        <v>41.61453690594612</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E46" t="n">
         <v>34.31465285444516</v>
@@ -7839,19 +7839,19 @@
         <v>334.8576753800222</v>
       </c>
       <c r="U46" t="n">
-        <v>334.8576753800222</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="V46" t="n">
-        <v>334.8576753800222</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="W46" t="n">
-        <v>41.61453690594612</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X46" t="n">
-        <v>41.61453690594612</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.61453690594612</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
   </sheetData>
@@ -8768,7 +8768,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J12" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K12" t="n">
         <v>171.373473584151</v>
@@ -8777,10 +8777,10 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>197.5542717195778</v>
+        <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>310.6138585746227</v>
+        <v>226.6888734850222</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -8789,7 +8789,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.67636752131759</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9005,16 +9005,16 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J15" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K15" t="n">
-        <v>8.646382090491699</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>301.77688131</v>
+        <v>126.3981812888867</v>
       </c>
       <c r="N15" t="n">
         <v>310.6138585746227</v>
@@ -9023,7 +9023,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>173.4146410504035</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9242,10 +9242,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976317</v>
       </c>
       <c r="K18" t="n">
-        <v>67.15086399372834</v>
+        <v>87.44848849454986</v>
       </c>
       <c r="L18" t="n">
         <v>240.3045437566416</v>
@@ -9263,7 +9263,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.67636752131759</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R18" t="n">
         <v>29.49804203773589</v>
@@ -9479,10 +9479,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J21" t="n">
-        <v>61.40936639976321</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K21" t="n">
-        <v>171.373473584151</v>
+        <v>8.64638209049167</v>
       </c>
       <c r="L21" t="n">
         <v>240.3045437566416</v>
@@ -9497,10 +9497,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P21" t="n">
-        <v>30.98517405756618</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>136.1300824528302</v>
+        <v>123.4784739253766</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9719,7 +9719,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>8.64638209049167</v>
+        <v>67.15086399372866</v>
       </c>
       <c r="L24" t="n">
         <v>240.3045437566416</v>
@@ -9734,10 +9734,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>173.4146410504032</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9956,13 +9956,13 @@
         <v>61.40936639976319</v>
       </c>
       <c r="K27" t="n">
-        <v>8.64638209049167</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
       </c>
       <c r="M27" t="n">
-        <v>301.77688131</v>
+        <v>217.8518962203994</v>
       </c>
       <c r="N27" t="n">
         <v>310.6138585746227</v>
@@ -9974,7 +9974,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>123.4784739253757</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10193,7 +10193,7 @@
         <v>61.40936639976319</v>
       </c>
       <c r="K30" t="n">
-        <v>171.373473584151</v>
+        <v>87.4484884945504</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10202,7 +10202,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N30" t="n">
-        <v>135.235158553509</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O30" t="n">
         <v>255.2227828913207</v>
@@ -10211,7 +10211,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10427,10 +10427,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J33" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K33" t="n">
-        <v>8.64638209049167</v>
+        <v>87.44848849455086</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10445,10 +10445,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P33" t="n">
-        <v>173.4146410504032</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10667,7 +10667,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>67.15086399372866</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10676,7 +10676,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N36" t="n">
-        <v>310.6138585746227</v>
+        <v>206.3912489842004</v>
       </c>
       <c r="O36" t="n">
         <v>255.2227828913207</v>
@@ -10901,7 +10901,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K39" t="n">
         <v>171.373473584151</v>
@@ -10913,7 +10913,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N39" t="n">
-        <v>114.9375340526877</v>
+        <v>226.6888734850222</v>
       </c>
       <c r="O39" t="n">
         <v>255.2227828913207</v>
@@ -10922,7 +10922,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q39" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11150,7 +11150,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N42" t="n">
-        <v>206.3912489841998</v>
+        <v>114.9375340526873</v>
       </c>
       <c r="O42" t="n">
         <v>255.2227828913207</v>
@@ -11159,7 +11159,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.67636752131754</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11302,7 +11302,7 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
-        <v>270.6444670286916</v>
+        <v>270.6444670286918</v>
       </c>
       <c r="M44" t="n">
         <v>291.2847697033555</v>
@@ -11317,7 +11317,7 @@
         <v>208.5255628951208</v>
       </c>
       <c r="Q44" t="n">
-        <v>137.5801139476182</v>
+        <v>137.580113947618</v>
       </c>
       <c r="R44" t="n">
         <v>42.58424007769262</v>
@@ -11375,10 +11375,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J45" t="n">
-        <v>61.40936639976317</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>8.646382090491642</v>
+        <v>67.15086399372811</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
@@ -11396,7 +11396,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q45" t="n">
-        <v>123.4784739253759</v>
+        <v>44.67636752131754</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.0872403778333</v>
+        <v>0.5806176590414793</v>
       </c>
       <c r="C11" t="n">
         <v>350.2054973811788</v>
@@ -23266,19 +23266,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E11" t="n">
-        <v>45.25992804697614</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.7504943976657</v>
+        <v>156.1084056849512</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>49.54443033837663</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>177.283526739121</v>
@@ -23393,19 +23393,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23424,7 +23424,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>141.676141212225</v>
+        <v>132.759882545368</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
@@ -23433,13 +23433,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H13" t="n">
-        <v>7.978571048150769</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R13" t="n">
         <v>174.3941919203111</v>
@@ -23472,7 +23472,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23500,16 +23500,16 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D14" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>371.4789120616362</v>
+        <v>225.2724799911292</v>
       </c>
       <c r="F14" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>332.2779548450047</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
-        <v>119.3167056202952</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
         <v>382.2855674184499</v>
@@ -23579,22 +23579,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>24.1662295071829</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,22 +23624,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
-        <v>211.8662302997449</v>
+        <v>114.8338541875461</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>89.92198587235799</v>
       </c>
       <c r="D16" t="n">
         <v>145.1826502507107</v>
@@ -23676,7 +23676,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>24.58419038258743</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
         <v>224.1841888012565</v>
       </c>
       <c r="T16" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>288.6213336334641</v>
@@ -23734,22 +23734,22 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>305.3555665468725</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
         <v>185.5090622027478</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>59.9568681036655</v>
       </c>
       <c r="T17" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
@@ -23816,13 +23816,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>65.16246721354305</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
         <v>147.9743432409925</v>
@@ -23831,7 +23831,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23867,16 +23867,16 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>144.1495771446592</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C19" t="n">
-        <v>166.4571809719723</v>
+        <v>159.2302957609864</v>
       </c>
       <c r="D19" t="n">
         <v>145.1826502507107</v>
@@ -23901,7 +23901,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F19" t="n">
-        <v>65.57347871938214</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
         <v>168.0550137836253</v>
@@ -23913,7 +23913,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J19" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,13 +23934,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>73.14329602706152</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R19" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T19" t="n">
         <v>221.0023972007068</v>
@@ -23952,7 +23952,7 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>221.9194554082425</v>
@@ -23977,16 +23977,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
-        <v>163.1471736102185</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I20" t="n">
         <v>185.5090622027478</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>104.4504115547735</v>
+        <v>59.40815951826931</v>
       </c>
       <c r="S20" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>216.1639724458418</v>
@@ -24028,13 +24028,13 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V20" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>162.929530559761</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>51.54326239323245</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24110,7 +24110,7 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
@@ -24129,10 +24129,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D22" t="n">
-        <v>14.10223892236189</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E22" t="n">
         <v>141.676141212225</v>
@@ -24141,7 +24141,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.0550137836253</v>
+        <v>159.1387551167683</v>
       </c>
       <c r="H22" t="n">
         <v>160.0829940331247</v>
@@ -24150,7 +24150,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58429473553588</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R22" t="n">
         <v>174.3941919203111</v>
@@ -24183,7 +24183,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24214,13 +24214,13 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0353723969745</v>
+        <v>235.8025956192889</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>198.6198979173709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>112.0993822449618</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -24302,10 +24302,10 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.84345120350706</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24344,16 +24344,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>177.6476426521537</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.2206011788152</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
         <v>166.4571809719723</v>
@@ -24381,13 +24381,13 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H25" t="n">
-        <v>160.0829940331247</v>
+        <v>7.978571048150627</v>
       </c>
       <c r="I25" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>74.58429473553586</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.14329602706152</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R25" t="n">
         <v>174.3941919203111</v>
@@ -24432,7 +24432,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>321.6290771449694</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C26" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>236.3792066375739</v>
       </c>
       <c r="E26" t="n">
         <v>371.4789120616362</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W26" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>146.3090417121094</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,10 +24569,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24581,16 +24581,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>184.188235604604</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>207.0347399843436</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F29" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>318.931390762304</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.0353723969745</v>
@@ -24742,13 +24742,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -24764,22 +24764,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>6.639165190752436</v>
       </c>
       <c r="G30" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,22 +24809,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>36.10452545007851</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -24858,7 +24858,7 @@
         <v>160.0829940331247</v>
       </c>
       <c r="I31" t="n">
-        <v>145.433169315347</v>
+        <v>15.95059079865115</v>
       </c>
       <c r="J31" t="n">
         <v>74.58429473553585</v>
@@ -24891,7 +24891,7 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T31" t="n">
-        <v>91.51981868401091</v>
+        <v>221.0023972007068</v>
       </c>
       <c r="U31" t="n">
         <v>288.6213336334641</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>209.1598621307841</v>
       </c>
       <c r="C32" t="n">
         <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T32" t="n">
-        <v>195.9968104950317</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U32" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V32" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24998,13 +24998,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>137.9626175701326</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25013,10 +25013,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886885</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8662302997449</v>
+        <v>36.89258593195569</v>
       </c>
       <c r="U33" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>174.3941919203111</v>
       </c>
       <c r="S34" t="n">
-        <v>224.1841888012565</v>
+        <v>147.6489937016422</v>
       </c>
       <c r="T34" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>288.6213336334641</v>
@@ -25137,10 +25137,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X34" t="n">
-        <v>214.6925701972567</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y34" t="n">
         <v>217.1412728141684</v>
@@ -25162,16 +25162,16 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>332.2779548450047</v>
+        <v>232.7198254208326</v>
       </c>
       <c r="I35" t="n">
         <v>185.5090622027478</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>137.2909976909039</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25219,10 +25219,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25286,16 +25286,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>61.91053974263355</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>67.48652695016779</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -25329,7 +25329,7 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H37" t="n">
-        <v>160.0829940331247</v>
+        <v>83.54779893351039</v>
       </c>
       <c r="I37" t="n">
         <v>145.433169315347</v>
@@ -25365,16 +25365,16 @@
         <v>224.1841888012565</v>
       </c>
       <c r="T37" t="n">
-        <v>221.0023972007068</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>288.6213336334641</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W37" t="n">
-        <v>237.8821299734639</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -25402,10 +25402,10 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>332.2779548450047</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>49.46275922408242</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T38" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0353723969745</v>
+        <v>223.4360553403109</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25472,7 +25472,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -25484,13 +25484,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>44.83286249270735</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>170.5533341631892</v>
       </c>
     </row>
     <row r="40">
@@ -25596,19 +25596,19 @@
         <v>73.14329602706151</v>
       </c>
       <c r="R40" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>224.1841888012565</v>
+        <v>101.0407884212465</v>
       </c>
       <c r="T40" t="n">
         <v>221.0023972007068</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V40" t="n">
-        <v>236.1927565175928</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
         <v>290.3107070893353</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D41" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
         <v>403.1992496400135</v>
@@ -25678,19 +25678,19 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
-        <v>194.7117974622146</v>
+        <v>14.86629406552103</v>
       </c>
       <c r="T41" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>40.98592654319436</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25706,22 +25706,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>7.655022485966981</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>147.9743432409925</v>
+        <v>31.52361208000187</v>
       </c>
       <c r="H42" t="n">
         <v>118.2964226714636</v>
@@ -25772,7 +25772,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>168.0550137836253</v>
+        <v>151.1204449139757</v>
       </c>
       <c r="H43" t="n">
         <v>160.0829940331247</v>
@@ -25845,10 +25845,10 @@
         <v>288.6213336334641</v>
       </c>
       <c r="V43" t="n">
-        <v>237.8821299734641</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -25867,19 +25867,19 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C44" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>98.38806700535002</v>
+        <v>226.3815275629827</v>
       </c>
       <c r="H44" t="n">
         <v>332.2779548450047</v>
@@ -25921,19 +25921,19 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886883</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>173.6721813508296</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>115.7905648676199</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -26031,7 +26031,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>134.449256001239</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -26079,13 +26079,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>245.1090151844499</v>
+        <v>236.1927565175928</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>604135.620545364</v>
+        <v>604135.6205453641</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>604135.6205453639</v>
+        <v>604135.620545364</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>604135.6205453638</v>
+        <v>604135.6205453639</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>604135.620545364</v>
+        <v>604135.6205453641</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>604135.620545364</v>
+        <v>604135.6205453639</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>529159.1971058757</v>
+        <v>529159.1971058756</v>
       </c>
       <c r="C2" t="n">
-        <v>529159.1971058757</v>
+        <v>529159.1971058756</v>
       </c>
       <c r="D2" t="n">
-        <v>529159.1971058757</v>
+        <v>529159.1971058756</v>
       </c>
       <c r="E2" t="n">
-        <v>300554.5501515163</v>
+        <v>300554.5501515165</v>
       </c>
       <c r="F2" t="n">
-        <v>300554.5501515162</v>
+        <v>300554.5501515165</v>
       </c>
       <c r="G2" t="n">
-        <v>300554.5501515162</v>
+        <v>300554.5501515166</v>
       </c>
       <c r="H2" t="n">
-        <v>300554.5501515163</v>
+        <v>300554.5501515165</v>
       </c>
       <c r="I2" t="n">
-        <v>300554.5501515163</v>
+        <v>300554.5501515165</v>
       </c>
       <c r="J2" t="n">
-        <v>300554.5501515165</v>
+        <v>300554.5501515166</v>
       </c>
       <c r="K2" t="n">
         <v>300554.5501515165</v>
       </c>
       <c r="L2" t="n">
-        <v>300554.5501515163</v>
+        <v>300554.5501515165</v>
       </c>
       <c r="M2" t="n">
-        <v>300554.5501515164</v>
+        <v>300554.5501515165</v>
       </c>
       <c r="N2" t="n">
-        <v>300554.5501515163</v>
+        <v>300554.5501515165</v>
       </c>
       <c r="O2" t="n">
-        <v>300554.5501515162</v>
+        <v>300554.5501515165</v>
       </c>
       <c r="P2" t="n">
-        <v>300554.5501515162</v>
+        <v>300554.5501515165</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>497053.1518174924</v>
+        <v>497053.1518174925</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26432,7 +26432,7 @@
         <v>28394.46915996418</v>
       </c>
       <c r="G4" t="n">
-        <v>28394.46915996418</v>
+        <v>28394.46915996417</v>
       </c>
       <c r="H4" t="n">
         <v>28394.46915996418</v>
@@ -26459,7 +26459,7 @@
         <v>28394.46915996418</v>
       </c>
       <c r="P4" t="n">
-        <v>28394.46915996418</v>
+        <v>28394.46915996417</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>36091.33751189046</v>
+      </c>
+      <c r="F5" t="n">
+        <v>36091.33751189046</v>
+      </c>
+      <c r="G5" t="n">
         <v>36091.33751189045</v>
       </c>
-      <c r="F5" t="n">
-        <v>36091.33751189044</v>
-      </c>
-      <c r="G5" t="n">
-        <v>36091.33751189044</v>
-      </c>
       <c r="H5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="I5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="J5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="K5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="L5" t="n">
-        <v>36091.33751189045</v>
+        <v>36091.33751189047</v>
       </c>
       <c r="M5" t="n">
         <v>36091.33751189046</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86451.47405266046</v>
+        <v>86406.81021060841</v>
       </c>
       <c r="C6" t="n">
-        <v>86451.47405266046</v>
+        <v>86406.81021060841</v>
       </c>
       <c r="D6" t="n">
-        <v>86451.47405266046</v>
+        <v>86406.81021060841</v>
       </c>
       <c r="E6" t="n">
-        <v>-260984.4083378307</v>
+        <v>-270554.2658029809</v>
       </c>
       <c r="F6" t="n">
-        <v>236068.7434796615</v>
+        <v>226498.8860145117</v>
       </c>
       <c r="G6" t="n">
-        <v>236068.7434796615</v>
+        <v>226498.8860145117</v>
       </c>
       <c r="H6" t="n">
-        <v>236068.7434796617</v>
+        <v>226498.8860145117</v>
       </c>
       <c r="I6" t="n">
-        <v>236068.7434796617</v>
+        <v>226498.8860145116</v>
       </c>
       <c r="J6" t="n">
-        <v>236068.7434796618</v>
+        <v>226498.8860145118</v>
       </c>
       <c r="K6" t="n">
-        <v>236068.7434796619</v>
+        <v>226498.8860145116</v>
       </c>
       <c r="L6" t="n">
-        <v>236068.7434796617</v>
+        <v>226498.8860145117</v>
       </c>
       <c r="M6" t="n">
-        <v>129176.8841054224</v>
+        <v>119607.0266402723</v>
       </c>
       <c r="N6" t="n">
-        <v>236068.7434796617</v>
+        <v>226498.8860145117</v>
       </c>
       <c r="O6" t="n">
-        <v>236068.7434796616</v>
+        <v>226498.8860145117</v>
       </c>
       <c r="P6" t="n">
-        <v>236068.7434796616</v>
+        <v>226498.8860145116</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="F3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="G3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="H3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="I3" t="n">
         <v>459.2752909409236</v>
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="F4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="G4" t="n">
         <v>428.9331606805645</v>
       </c>
-      <c r="F4" t="n">
-        <v>428.9331606805644</v>
-      </c>
-      <c r="G4" t="n">
-        <v>428.9331606805644</v>
-      </c>
       <c r="H4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805647</v>
       </c>
       <c r="I4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="J4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="K4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="L4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805647</v>
       </c>
       <c r="M4" t="n">
         <v>428.9331606805646</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>459.2752909409235</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31755,43 +31755,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H11" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I11" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J11" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K11" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L11" t="n">
-        <v>291.3651677393358</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M11" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N11" t="n">
         <v>329.4457823148396</v>
       </c>
       <c r="O11" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P11" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q11" t="n">
         <v>199.3831741692328</v>
       </c>
       <c r="R11" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S11" t="n">
-        <v>42.07330931584441</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T11" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U11" t="n">
         <v>0.1477066262322567</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H12" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I12" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J12" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K12" t="n">
         <v>159.5201734582263</v>
@@ -31852,10 +31852,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N12" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O12" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P12" t="n">
         <v>188.640826575339</v>
@@ -31864,16 +31864,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R12" t="n">
-        <v>61.33491526943128</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S12" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T12" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,28 +31910,28 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H13" t="n">
-        <v>7.363462861315139</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I13" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J13" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K13" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L13" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M13" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N13" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O13" t="n">
         <v>117.0624954680243</v>
@@ -31940,19 +31940,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q13" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R13" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S13" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T13" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,43 +31992,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H14" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I14" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J14" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K14" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L14" t="n">
-        <v>291.3651677393358</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M14" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N14" t="n">
         <v>329.4457823148396</v>
       </c>
       <c r="O14" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P14" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q14" t="n">
         <v>199.3831741692328</v>
       </c>
       <c r="R14" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S14" t="n">
-        <v>42.07330931584441</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T14" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U14" t="n">
         <v>0.1477066262322567</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H15" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I15" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J15" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K15" t="n">
         <v>159.5201734582263</v>
@@ -32089,10 +32089,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N15" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O15" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P15" t="n">
         <v>188.640826575339</v>
@@ -32101,16 +32101,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R15" t="n">
-        <v>61.33491526943128</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S15" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T15" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,28 +32147,28 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H16" t="n">
-        <v>7.363462861315139</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I16" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J16" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K16" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L16" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M16" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N16" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O16" t="n">
         <v>117.0624954680243</v>
@@ -32177,19 +32177,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q16" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R16" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S16" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T16" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,43 +32229,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H17" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I17" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J17" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K17" t="n">
-        <v>234.860459457393</v>
+        <v>234.8604594573931</v>
       </c>
       <c r="L17" t="n">
-        <v>291.3651677393358</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M17" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675597</v>
       </c>
       <c r="N17" t="n">
-        <v>329.4457823148396</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O17" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P17" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q17" t="n">
-        <v>199.3831741692328</v>
+        <v>199.3831741692329</v>
       </c>
       <c r="R17" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S17" t="n">
-        <v>42.07330931584441</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T17" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U17" t="n">
         <v>0.1477066262322567</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H18" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I18" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J18" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K18" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L18" t="n">
-        <v>214.4945592267021</v>
+        <v>214.4945592267022</v>
       </c>
       <c r="M18" t="n">
-        <v>250.3050335628033</v>
+        <v>250.3050335628034</v>
       </c>
       <c r="N18" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O18" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P18" t="n">
         <v>188.640826575339</v>
@@ -32338,16 +32338,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R18" t="n">
-        <v>61.33491526943128</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S18" t="n">
-        <v>18.34934770881896</v>
+        <v>18.34934770881897</v>
       </c>
       <c r="T18" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,28 +32384,28 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H19" t="n">
-        <v>7.363462861315139</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I19" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J19" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K19" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L19" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M19" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N19" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O19" t="n">
         <v>117.0624954680243</v>
@@ -32414,19 +32414,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R19" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S19" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T19" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,43 +32466,43 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H20" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I20" t="n">
-        <v>71.18074634773852</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J20" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K20" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L20" t="n">
-        <v>291.3651677393358</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M20" t="n">
-        <v>324.1998891675595</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N20" t="n">
         <v>329.4457823148396</v>
       </c>
       <c r="O20" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P20" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q20" t="n">
         <v>199.3831741692328</v>
       </c>
       <c r="R20" t="n">
-        <v>115.979704500775</v>
+        <v>115.9797045007751</v>
       </c>
       <c r="S20" t="n">
-        <v>42.07330931584441</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T20" t="n">
-        <v>8.0823219541463</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U20" t="n">
         <v>0.1477066262322567</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.987875154099345</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H21" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I21" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J21" t="n">
-        <v>93.33253813357014</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K21" t="n">
         <v>159.5201734582263</v>
@@ -32563,10 +32563,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N21" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O21" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P21" t="n">
         <v>188.640826575339</v>
@@ -32575,16 +32575,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R21" t="n">
-        <v>61.33491526943128</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S21" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T21" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0649917864539043</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,28 +32621,28 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8282013443196981</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H22" t="n">
-        <v>7.363462861315139</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I22" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J22" t="n">
-        <v>58.55383504340265</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K22" t="n">
-        <v>96.22193800368854</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L22" t="n">
         <v>123.1309525909486</v>
       </c>
       <c r="M22" t="n">
-        <v>129.8243252736777</v>
+        <v>129.8243252736778</v>
       </c>
       <c r="N22" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O22" t="n">
         <v>117.0624954680243</v>
@@ -32651,19 +32651,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R22" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S22" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T22" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04517461878107449</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,19 +32703,19 @@
         <v>1.846332827903209</v>
       </c>
       <c r="H23" t="n">
-        <v>18.90875607376374</v>
+        <v>18.90875607376375</v>
       </c>
       <c r="I23" t="n">
-        <v>71.18074634773853</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J23" t="n">
-        <v>156.7051908522501</v>
+        <v>156.7051908522502</v>
       </c>
       <c r="K23" t="n">
         <v>234.860459457393</v>
       </c>
       <c r="L23" t="n">
-        <v>291.3651677393359</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M23" t="n">
         <v>324.1998891675596</v>
@@ -32724,10 +32724,10 @@
         <v>329.4457823148396</v>
       </c>
       <c r="O23" t="n">
-        <v>311.086310257377</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P23" t="n">
-        <v>265.5049685685165</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q23" t="n">
         <v>199.3831741692328</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9878751540993451</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H24" t="n">
-        <v>9.54079425143315</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I24" t="n">
-        <v>34.01236824420991</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J24" t="n">
-        <v>93.33253813357015</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K24" t="n">
         <v>159.5201734582263</v>
@@ -32800,10 +32800,10 @@
         <v>250.3050335628033</v>
       </c>
       <c r="N24" t="n">
-        <v>256.929862995338</v>
+        <v>256.9298629953381</v>
       </c>
       <c r="O24" t="n">
-        <v>235.040629317663</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P24" t="n">
         <v>188.640826575339</v>
@@ -32812,13 +32812,13 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R24" t="n">
-        <v>61.33491526943129</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S24" t="n">
         <v>18.34934770881896</v>
       </c>
       <c r="T24" t="n">
-        <v>3.981830116742534</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U24" t="n">
         <v>0.06499178645390431</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196982</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H25" t="n">
-        <v>7.36346286131514</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I25" t="n">
-        <v>24.90627315463238</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J25" t="n">
         <v>58.55383504340266</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368855</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L25" t="n">
         <v>123.1309525909486</v>
@@ -32879,7 +32879,7 @@
         <v>129.8243252736778</v>
       </c>
       <c r="N25" t="n">
-        <v>126.7373929903044</v>
+        <v>126.7373929903045</v>
       </c>
       <c r="O25" t="n">
         <v>117.0624954680243</v>
@@ -32888,16 +32888,16 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.35056893207945</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R25" t="n">
-        <v>37.23894408186569</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S25" t="n">
         <v>14.43329070055328</v>
       </c>
       <c r="T25" t="n">
-        <v>3.538678471184164</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U25" t="n">
         <v>0.0451746187810745</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K11" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L11" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M11" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N11" t="n">
         <v>332.9626517459644</v>
       </c>
       <c r="O11" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P11" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q11" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>20.29762450082171</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L12" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M12" t="n">
-        <v>274.4557838975187</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N12" t="n">
-        <v>407.306832828294</v>
+        <v>323.3818477386936</v>
       </c>
       <c r="O12" t="n">
         <v>316.2959939867616</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L13" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M13" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N13" t="n">
-        <v>82.29890925793117</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O13" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P13" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K14" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L14" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M14" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N14" t="n">
         <v>332.9626517459644</v>
       </c>
       <c r="O14" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P14" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q14" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>20.29762450082171</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L15" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M15" t="n">
-        <v>378.6783934879409</v>
+        <v>203.2996934668277</v>
       </c>
       <c r="N15" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O15" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P15" t="n">
-        <v>198.6066905802596</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.45371493151262</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L16" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M16" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N16" t="n">
-        <v>82.29890925793117</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O16" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P16" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K17" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L17" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M17" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N17" t="n">
-        <v>332.9626517459644</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O17" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P17" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.29762450082171</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>58.50448190323664</v>
+        <v>78.80210640405822</v>
       </c>
       <c r="L18" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M18" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N18" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O18" t="n">
-        <v>316.2959939867616</v>
+        <v>316.2959939867617</v>
       </c>
       <c r="P18" t="n">
         <v>231.5559236085354</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L19" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M19" t="n">
-        <v>76.00912912692037</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N19" t="n">
-        <v>82.29890925793117</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O19" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P19" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.40379396119663</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K20" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L20" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M20" t="n">
-        <v>334.4622543336423</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N20" t="n">
         <v>332.9626517459644</v>
       </c>
       <c r="O20" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P20" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q20" t="n">
-        <v>65.75034647002263</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M21" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N21" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O21" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P21" t="n">
-        <v>56.17722358742224</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.45371493151262</v>
+        <v>78.80210640405907</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7.995723626970232</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L22" t="n">
-        <v>63.85525412676513</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M22" t="n">
-        <v>76.00912912692037</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N22" t="n">
-        <v>82.29890925793117</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O22" t="n">
-        <v>53.79651836186794</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P22" t="n">
-        <v>19.6232761314409</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.40379396119666</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K23" t="n">
         <v>176.3970685286315</v>
       </c>
       <c r="L23" t="n">
-        <v>274.3746085046433</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M23" t="n">
         <v>334.4622543336424</v>
@@ -36372,13 +36372,13 @@
         <v>332.9626517459644</v>
       </c>
       <c r="O23" t="n">
-        <v>277.1250097811782</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P23" t="n">
-        <v>191.9262766422084</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.75034647002266</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.29762450082173</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>58.50448190323699</v>
       </c>
       <c r="L24" t="n">
-        <v>285.7627596518971</v>
+        <v>285.7627596518972</v>
       </c>
       <c r="M24" t="n">
-        <v>378.6783934879409</v>
+        <v>378.678393487941</v>
       </c>
       <c r="N24" t="n">
-        <v>407.306832828294</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O24" t="n">
         <v>316.2959939867616</v>
       </c>
       <c r="P24" t="n">
-        <v>198.6066905802593</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.45371493151264</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,19 +36518,19 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970246</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L25" t="n">
-        <v>63.85525412676515</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M25" t="n">
         <v>76.0091291269204</v>
       </c>
       <c r="N25" t="n">
-        <v>82.29890925793119</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O25" t="n">
-        <v>53.79651836186795</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P25" t="n">
         <v>19.62327613144092</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L27" t="n">
         <v>285.7627596518972</v>
       </c>
       <c r="M27" t="n">
-        <v>378.678393487941</v>
+        <v>294.7534083983404</v>
       </c>
       <c r="N27" t="n">
         <v>407.3068328282941</v>
@@ -36694,7 +36694,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.80210640405815</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>162.7270914936593</v>
+        <v>78.80210640405873</v>
       </c>
       <c r="L30" t="n">
         <v>285.7627596518972</v>
@@ -36922,7 +36922,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N30" t="n">
-        <v>231.9281328071804</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O30" t="n">
         <v>316.2959939867616</v>
@@ -36931,7 +36931,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.45371493151265</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>78.80210640405919</v>
       </c>
       <c r="L33" t="n">
         <v>285.7627596518972</v>
@@ -37165,10 +37165,10 @@
         <v>316.2959939867616</v>
       </c>
       <c r="P33" t="n">
-        <v>198.6066905802593</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.45371493151265</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>20.29762450082174</v>
       </c>
       <c r="K36" t="n">
-        <v>58.50448190323699</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L36" t="n">
         <v>285.7627596518972</v>
@@ -37396,7 +37396,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N36" t="n">
-        <v>407.3068328282941</v>
+        <v>303.0842232378718</v>
       </c>
       <c r="O36" t="n">
         <v>316.2959939867616</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.29762450082174</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>162.7270914936593</v>
@@ -37633,7 +37633,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N39" t="n">
-        <v>211.630508306359</v>
+        <v>323.3818477386936</v>
       </c>
       <c r="O39" t="n">
         <v>316.2959939867616</v>
@@ -37642,7 +37642,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.45371493151265</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>378.678393487941</v>
       </c>
       <c r="N42" t="n">
-        <v>303.0842232378712</v>
+        <v>211.6305083063587</v>
       </c>
       <c r="O42" t="n">
         <v>316.2959939867617</v>
@@ -37879,7 +37879,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>176.3970685286315</v>
       </c>
       <c r="L44" t="n">
-        <v>274.3746085046432</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M44" t="n">
         <v>334.4622543336424</v>
@@ -38037,7 +38037,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002249</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>58.50448190323646</v>
       </c>
       <c r="L45" t="n">
         <v>285.7627596518972</v>
@@ -38116,7 +38116,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q45" t="n">
-        <v>78.80210640405838</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
